--- a/SchedulingData/dynamic15/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,26 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>277.92</v>
+        <v>219.26</v>
       </c>
       <c r="D2" t="n">
-        <v>316.04</v>
+        <v>280.88</v>
       </c>
       <c r="E2" t="n">
-        <v>9.516</v>
+        <v>12.072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -489,108 +489,108 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>211.14</v>
+        <v>235.86</v>
       </c>
       <c r="D3" t="n">
-        <v>260.74</v>
+        <v>290.66</v>
       </c>
       <c r="E3" t="n">
-        <v>15.036</v>
+        <v>12.064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>215.1</v>
+        <v>290.66</v>
       </c>
       <c r="D4" t="n">
-        <v>271.26</v>
+        <v>354.66</v>
       </c>
       <c r="E4" t="n">
-        <v>13.524</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>264.66</v>
+        <v>212.42</v>
       </c>
       <c r="D5" t="n">
-        <v>311</v>
+        <v>257.04</v>
       </c>
       <c r="E5" t="n">
-        <v>11.04</v>
+        <v>13.476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>271.26</v>
+        <v>221.68</v>
       </c>
       <c r="D6" t="n">
-        <v>314.68</v>
+        <v>284.9</v>
       </c>
       <c r="E6" t="n">
-        <v>10.312</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>316.04</v>
+        <v>284.9</v>
       </c>
       <c r="D7" t="n">
-        <v>371.24</v>
+        <v>379.7</v>
       </c>
       <c r="E7" t="n">
-        <v>5.616</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>233.46</v>
+        <v>211.54</v>
       </c>
       <c r="D8" t="n">
-        <v>294.52</v>
+        <v>264.84</v>
       </c>
       <c r="E8" t="n">
-        <v>12.408</v>
+        <v>14.056</v>
       </c>
     </row>
     <row r="9">
@@ -599,131 +599,131 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>311</v>
+        <v>379.7</v>
       </c>
       <c r="D9" t="n">
-        <v>369.42</v>
+        <v>426.28</v>
       </c>
       <c r="E9" t="n">
-        <v>6.828</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>371.24</v>
+        <v>354.66</v>
       </c>
       <c r="D10" t="n">
-        <v>430</v>
+        <v>412.04</v>
       </c>
       <c r="E10" t="n">
-        <v>1.36</v>
+        <v>5.176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>430</v>
+        <v>426.28</v>
       </c>
       <c r="D11" t="n">
-        <v>513.88</v>
+        <v>508.78</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>262</v>
+        <v>508.78</v>
       </c>
       <c r="D12" t="n">
-        <v>319.7</v>
+        <v>619.86</v>
       </c>
       <c r="E12" t="n">
-        <v>12.68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>513.88</v>
+        <v>257.04</v>
       </c>
       <c r="D13" t="n">
-        <v>576.04</v>
+        <v>354.14</v>
       </c>
       <c r="E13" t="n">
-        <v>26.464</v>
+        <v>8.375999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>260.74</v>
+        <v>354.14</v>
       </c>
       <c r="D14" t="n">
-        <v>325.52</v>
+        <v>408.08</v>
       </c>
       <c r="E14" t="n">
-        <v>10.668</v>
+        <v>4.112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>314.68</v>
+        <v>280.88</v>
       </c>
       <c r="D15" t="n">
-        <v>384.76</v>
+        <v>345.66</v>
       </c>
       <c r="E15" t="n">
-        <v>6.424</v>
+        <v>8.224</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>319.7</v>
+        <v>408.08</v>
       </c>
       <c r="D16" t="n">
-        <v>365.76</v>
+        <v>472.78</v>
       </c>
       <c r="E16" t="n">
-        <v>9.204000000000001</v>
+        <v>1.252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>384.76</v>
+        <v>472.78</v>
       </c>
       <c r="D17" t="n">
-        <v>454.34</v>
+        <v>556.98</v>
       </c>
       <c r="E17" t="n">
-        <v>2.576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>369.42</v>
+        <v>237.14</v>
       </c>
       <c r="D18" t="n">
-        <v>417.34</v>
+        <v>289.84</v>
       </c>
       <c r="E18" t="n">
-        <v>3.656</v>
+        <v>10.336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>325.52</v>
+        <v>556.98</v>
       </c>
       <c r="D19" t="n">
-        <v>394.02</v>
+        <v>624.14</v>
       </c>
       <c r="E19" t="n">
-        <v>6.928</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>294.52</v>
+        <v>264.84</v>
       </c>
       <c r="D20" t="n">
-        <v>353.84</v>
+        <v>324.92</v>
       </c>
       <c r="E20" t="n">
-        <v>8.096</v>
+        <v>10.168</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>576.04</v>
+        <v>289.84</v>
       </c>
       <c r="D21" t="n">
-        <v>664.34</v>
+        <v>332.82</v>
       </c>
       <c r="E21" t="n">
-        <v>21.244</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>417.34</v>
+        <v>324.92</v>
       </c>
       <c r="D22" t="n">
-        <v>511.53</v>
+        <v>382.42</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>6.528</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>511.53</v>
+        <v>332.82</v>
       </c>
       <c r="D23" t="n">
-        <v>572.9299999999999</v>
+        <v>402.72</v>
       </c>
       <c r="E23" t="n">
-        <v>26.04</v>
+        <v>3.268</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>572.9299999999999</v>
+        <v>412.04</v>
       </c>
       <c r="D24" t="n">
-        <v>640.51</v>
+        <v>483.52</v>
       </c>
       <c r="E24" t="n">
-        <v>22.872</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>454.34</v>
+        <v>619.86</v>
       </c>
       <c r="D25" t="n">
-        <v>521.09</v>
+        <v>681.1</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>521.09</v>
+        <v>681.1</v>
       </c>
       <c r="D26" t="n">
-        <v>581.59</v>
+        <v>724.74</v>
       </c>
       <c r="E26" t="n">
-        <v>26.62</v>
+        <v>24.792</v>
       </c>
     </row>
     <row r="27">
@@ -941,112 +941,112 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>664.34</v>
+        <v>402.72</v>
       </c>
       <c r="D27" t="n">
-        <v>710.1799999999999</v>
+        <v>472.98</v>
       </c>
       <c r="E27" t="n">
-        <v>18.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>353.84</v>
+        <v>472.98</v>
       </c>
       <c r="D28" t="n">
-        <v>412.9</v>
+        <v>526.38</v>
       </c>
       <c r="E28" t="n">
-        <v>4.82</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>365.76</v>
+        <v>345.66</v>
       </c>
       <c r="D29" t="n">
-        <v>475.26</v>
+        <v>395.66</v>
       </c>
       <c r="E29" t="n">
-        <v>4.344</v>
+        <v>4.844</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>394.02</v>
+        <v>382.42</v>
       </c>
       <c r="D30" t="n">
-        <v>448.02</v>
+        <v>419.16</v>
       </c>
       <c r="E30" t="n">
-        <v>3.648</v>
+        <v>3.984</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>640.51</v>
+        <v>395.66</v>
       </c>
       <c r="D31" t="n">
-        <v>696.25</v>
+        <v>451.52</v>
       </c>
       <c r="E31" t="n">
-        <v>19.908</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>412.9</v>
+        <v>451.52</v>
       </c>
       <c r="D32" t="n">
-        <v>474.68</v>
+        <v>555.1799999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>1.752</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>474.68</v>
+        <v>483.52</v>
       </c>
       <c r="D33" t="n">
-        <v>543.1799999999999</v>
+        <v>546.3</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,59 +1070,59 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>448.02</v>
+        <v>546.3</v>
       </c>
       <c r="D34" t="n">
-        <v>510.5</v>
+        <v>595.1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>510.5</v>
+        <v>526.38</v>
       </c>
       <c r="D35" t="n">
-        <v>602.2</v>
+        <v>581</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>24.028</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>475.26</v>
+        <v>555.1799999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>554.78</v>
+        <v>589.88</v>
       </c>
       <c r="E36" t="n">
-        <v>0.032</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="37">
@@ -1131,188 +1131,207 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>554.78</v>
+        <v>624.14</v>
       </c>
       <c r="D37" t="n">
-        <v>636.62</v>
+        <v>680.38</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>636.62</v>
+        <v>589.88</v>
       </c>
       <c r="D38" t="n">
-        <v>675.86</v>
+        <v>654.4</v>
       </c>
       <c r="E38" t="n">
-        <v>27.756</v>
+        <v>23.408</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>710.1799999999999</v>
+        <v>419.16</v>
       </c>
       <c r="D39" t="n">
-        <v>769.78</v>
+        <v>488.4</v>
       </c>
       <c r="E39" t="n">
-        <v>15.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>675.86</v>
+        <v>488.4</v>
       </c>
       <c r="D40" t="n">
-        <v>726.26</v>
+        <v>564.12</v>
       </c>
       <c r="E40" t="n">
-        <v>24.336</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>726.26</v>
+        <v>654.4</v>
       </c>
       <c r="D41" t="n">
-        <v>765.88</v>
+        <v>709.9</v>
       </c>
       <c r="E41" t="n">
-        <v>22.004</v>
+        <v>19.988</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>602.2</v>
+        <v>581</v>
       </c>
       <c r="D42" t="n">
-        <v>669.04</v>
+        <v>636.76</v>
       </c>
       <c r="E42" t="n">
-        <v>27.456</v>
+        <v>21.052</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>669.04</v>
+        <v>595.1</v>
       </c>
       <c r="D43" t="n">
-        <v>716.9400000000001</v>
+        <v>680.4400000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>25.296</v>
+        <v>23.856</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>543.1799999999999</v>
+        <v>636.76</v>
       </c>
       <c r="D44" t="n">
-        <v>603.1</v>
+        <v>714.12</v>
       </c>
       <c r="E44" t="n">
-        <v>27.668</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>581.59</v>
+        <v>680.4400000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>649.15</v>
+        <v>743.36</v>
       </c>
       <c r="E45" t="n">
-        <v>23.484</v>
+        <v>20.684</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>603.1</v>
+        <v>564.12</v>
       </c>
       <c r="D46" t="n">
-        <v>690.9</v>
+        <v>602.84</v>
       </c>
       <c r="E46" t="n">
-        <v>24.488</v>
+        <v>26.828</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond17</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>602.84</v>
+      </c>
+      <c r="D47" t="n">
+        <v>670.14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24.668</v>
       </c>
     </row>
   </sheetData>
